--- a/biology/Botanique/Digitalis_sceptrum/Digitalis_sceptrum.xlsx
+++ b/biology/Botanique/Digitalis_sceptrum/Digitalis_sceptrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Digitalis sceptrum (anciennement Isoplexis sceptrum) est une plante de la famille des Plantaginaceae (anciennement des Scrophulariaceae),  endémique à l'île de Madère.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Isoplexis sceptrum (L. f.) Steud.
 Digitalis comosa R.Br. ex Britten
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste pouvant atteindre 1,5 m de haut, avec des branches ligneuses
 Les feuilles, longues de 50 cm montées en couronne au bout des branches.
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Digitalis sceptrum se rencontre dans la laurisylve de Madère
 </t>
